--- a/InputData/elec/TCCpUNEC/Trans Const Cost per Unit New Electricity Capacity.xlsx
+++ b/InputData/elec/TCCpUNEC/Trans Const Cost per Unit New Electricity Capacity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://artelys778.sharepoint.com/sites/Agora-EPStool-Artelys/Documents partages/Artelys/3 - Livrables/1. all data/2. A checker par Paul/21. Transmission Construction costs per Unit New Electricity Generation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\TCCpUNEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F742EC9-DB90-4E41-94F6-EC77E38CCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AAFBA-DFC7-4267-9E55-6AF4A269F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDE162CC-627D-4C88-85F7-5DCCD629BE68}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="24240" windowHeight="14730" activeTab="2" xr2:uid="{FDE162CC-627D-4C88-85F7-5DCCD629BE68}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Raw data" sheetId="3" r:id="rId2"/>
-    <sheet name="TCCpUNEG" sheetId="4" r:id="rId3"/>
+    <sheet name="TCCpUiNEG" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +222,8 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Milliers" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -701,28 +701,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0304F8C-D2F8-4C27-AAAF-E36443E433D3}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B11:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="10.85546875" style="2"/>
     <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -733,53 +734,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
         <v>0.84799999999999998</v>
       </c>
@@ -787,49 +788,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>0.91400000000000003</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
@@ -846,36 +847,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EAA1EC-C581-48D2-9744-710F2C253796}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="13" max="13" width="122.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.3</v>
       </c>
@@ -894,27 +896,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9FAEC6-8B36-4DAC-9C80-003E320C1F46}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -929,26 +931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1177,14 +1159,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D97D76-F9E5-42F8-BF38-6691875B5668}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C88ABB6D-0449-49DF-88F4-E1798B1BC1A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1B6AE2-63BC-4B86-BAF2-793E7D774403}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1B6AE2-63BC-4B86-BAF2-793E7D774403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C88ABB6D-0449-49DF-88F4-E1798B1BC1A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D97D76-F9E5-42F8-BF38-6691875B5668}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/TCCpUNEC/Trans Const Cost per Unit New Electricity Capacity.xlsx
+++ b/InputData/elec/TCCpUNEC/Trans Const Cost per Unit New Electricity Capacity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\TCCpUNEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\TCCpUNEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48AAFBA-DFC7-4267-9E55-6AF4A269F960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CA4781-DF69-4024-82B9-5B3578BC285A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="24240" windowHeight="14730" activeTab="2" xr2:uid="{FDE162CC-627D-4C88-85F7-5DCCD629BE68}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{FDE162CC-627D-4C88-85F7-5DCCD629BE68}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Raw data" sheetId="3" r:id="rId2"/>
-    <sheet name="TCCpUiNEG" sheetId="4" r:id="rId3"/>
+    <sheet name="TCCpUNEC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -708,22 +708,22 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="30.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="2" width="10.81640625" style="2"/>
+    <col min="3" max="3" width="30.7265625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -734,53 +734,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="9"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="9">
         <v>0.84799999999999998</v>
       </c>
@@ -788,49 +788,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>0.91400000000000003</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
     </row>
@@ -854,30 +854,30 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="122.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="122.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
       <c r="M18" s="12"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.3</v>
       </c>
@@ -902,21 +902,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
@@ -931,6 +931,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -1159,27 +1179,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D97D76-F9E5-42F8-BF38-6691875B5668}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1B6AE2-63BC-4B86-BAF2-793E7D774403}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C88ABB6D-0449-49DF-88F4-E1798B1BC1A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1196,23 +1215,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D1B6AE2-63BC-4B86-BAF2-793E7D774403}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52D97D76-F9E5-42F8-BF38-6691875B5668}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>